--- a/Eagle Files/rs485board/BOM.xlsx
+++ b/Eagle Files/rs485board/BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sundeqing/Documents/Github/LEDSphere/Eagle Files/rs485board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D70A5-D94A-E24A-A28D-342BB9A23A14}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E80DF5-F4DE-8A48-BCCE-7C25F0B931CD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32280" yWindow="-320" windowWidth="28040" windowHeight="17440" xr2:uid="{CEABBC66-E7B8-2641-88FD-91B0D4F49B8C}"/>
+    <workbookView xWindow="6820" yWindow="6460" windowWidth="28040" windowHeight="17440" xr2:uid="{CEABBC66-E7B8-2641-88FD-91B0D4F49B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="rs485board_1" localSheetId="0">Sheet2!$A$1:$O$31</definedName>
+    <definedName name="rs485board_1" localSheetId="0">Sheet2!$A$1:$T$31</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
   <si>
     <t>Qty</t>
   </si>
@@ -452,9 +452,6 @@
     <t>DIODE</t>
   </si>
   <si>
-    <t>CJ3404</t>
-  </si>
-  <si>
     <t>MOSFET-NCH-AO3404A</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>5.8A/30V/35mŒ©</t>
   </si>
   <si>
-    <t>DNP</t>
-  </si>
-  <si>
     <t>R2, R3, R4</t>
   </si>
   <si>
@@ -510,6 +504,51 @@
   </si>
   <si>
     <t>250 mA, 16V, Low Quiescent Current LDO Regulator</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>220 板用量</t>
+  </si>
+  <si>
+    <t>订购数量</t>
+  </si>
+  <si>
+    <t>订购来源</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>运单</t>
+  </si>
+  <si>
+    <t>立创商城</t>
+  </si>
+  <si>
+    <t>刚下订单</t>
+  </si>
+  <si>
+    <t>速尔快递 880377521175</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>韵达快递 3967711041128</t>
+  </si>
+  <si>
+    <t>申通快递 3359443476496</t>
+  </si>
+  <si>
+    <t>一根40排针可以拆出6根6针</t>
+  </si>
+  <si>
+    <t>中通快递 632236278536</t>
+  </si>
+  <si>
+    <t>下单下多了。多余物料可以退</t>
   </si>
 </sst>
 </file>
@@ -545,8 +584,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,35 +905,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE5A39A-58EB-C843-A09B-10B1C607821A}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -906,37 +950,55 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C2" t="s">
         <v>113</v>
       </c>
@@ -946,14 +1008,21 @@
       <c r="E2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <f>A2*220</f>
+        <v>1100</v>
+      </c>
+      <c r="K2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
@@ -963,15 +1032,19 @@
       <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="0">A3*220</f>
+        <v>880</v>
+      </c>
+      <c r="K3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
@@ -983,18 +1056,31 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>4650</v>
+      </c>
+      <c r="I4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -1006,18 +1092,31 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" t="s">
         <v>121</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
@@ -1029,18 +1128,31 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
@@ -1052,19 +1164,32 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7">
+        <v>900</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>120</v>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1075,15 +1200,19 @@
       <c r="E8" t="s">
         <v>122</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="K8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -1095,18 +1224,31 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
@@ -1118,18 +1260,31 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
@@ -1141,15 +1296,31 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
       <c r="G11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11">
+        <v>443</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
@@ -1161,24 +1332,37 @@
       <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>44</v>
       </c>
-      <c r="L12" t="s">
+      <c r="Q12" t="s">
         <v>45</v>
       </c>
-      <c r="N12" t="s">
+      <c r="S12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
@@ -1190,18 +1374,31 @@
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
+      <c r="L13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -1213,18 +1410,31 @@
       <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
+      <c r="L14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -1236,24 +1446,37 @@
       <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="G15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15">
+        <v>2230</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" t="s">
+      <c r="L15" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Q15" t="s">
         <v>56</v>
       </c>
-      <c r="N15" t="s">
+      <c r="S15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
@@ -1265,18 +1488,31 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C17" t="s">
@@ -1288,18 +1524,31 @@
       <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
         <v>121</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C18" t="s">
@@ -1311,18 +1560,31 @@
       <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5819</v>
       </c>
       <c r="C19" t="s">
@@ -1334,18 +1596,31 @@
       <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19">
+        <v>1360</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
         <v>125</v>
       </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
@@ -1357,25 +1632,38 @@
       <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20">
+        <v>220</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
         <v>126</v>
       </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>73</v>
       </c>
-      <c r="L20" t="s">
+      <c r="Q20" t="s">
         <v>74</v>
       </c>
-      <c r="N20" t="s">
+      <c r="S20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>127</v>
+      <c r="B21" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
@@ -1386,15 +1674,19 @@
       <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="K21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C22" t="s">
@@ -1406,45 +1698,62 @@
       <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22">
+        <v>225</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s">
         <v>131</v>
       </c>
-      <c r="G22" t="s">
+      <c r="L22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="K23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="Q23" t="s">
         <v>136</v>
       </c>
-      <c r="L23" t="s">
+      <c r="S23" t="s">
         <v>137</v>
       </c>
-      <c r="N23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>139</v>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1453,17 +1762,21 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="K24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C25" t="s">
@@ -1475,24 +1788,37 @@
       <c r="E25" t="s">
         <v>82</v>
       </c>
-      <c r="F25" t="s">
-        <v>141</v>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25">
+        <v>225</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
         <v>83</v>
       </c>
-      <c r="L25" t="s">
+      <c r="Q25" t="s">
         <v>84</v>
       </c>
-      <c r="M25" t="s">
+      <c r="R25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
@@ -1504,41 +1830,70 @@
       <c r="E26" t="s">
         <v>88</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
       <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26">
+        <v>225</v>
+      </c>
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" t="s">
         <v>144</v>
       </c>
-      <c r="E27" t="s">
+      <c r="Q27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" t="s">
-        <v>147</v>
-      </c>
-      <c r="N27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C28" t="s">
@@ -1550,30 +1905,43 @@
       <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
-        <v>148</v>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>440</v>
       </c>
       <c r="G28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28">
+        <v>460</v>
+      </c>
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="M28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
+      <c r="N28" t="s">
         <v>95</v>
       </c>
-      <c r="J28">
+      <c r="O28">
         <v>1279843</v>
       </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C29" t="s">
@@ -1585,24 +1953,37 @@
       <c r="E29" t="s">
         <v>99</v>
       </c>
-      <c r="F29" t="s">
-        <v>149</v>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29">
+        <v>220</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
         <v>100</v>
       </c>
-      <c r="L29" t="s">
+      <c r="Q29" t="s">
         <v>101</v>
       </c>
-      <c r="N29" t="s">
+      <c r="S29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C30" t="s">
@@ -1614,24 +1995,37 @@
       <c r="E30" t="s">
         <v>104</v>
       </c>
-      <c r="F30" t="s">
-        <v>150</v>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2640</v>
       </c>
       <c r="G30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30">
+        <v>2650</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" t="s">
         <v>105</v>
       </c>
-      <c r="L30" t="s">
+      <c r="Q30" t="s">
         <v>106</v>
       </c>
-      <c r="N30" t="s">
+      <c r="S30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C31" t="s">
@@ -1643,14 +2037,28 @@
       <c r="E31" t="s">
         <v>110</v>
       </c>
-      <c r="F31" t="s">
-        <v>151</v>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31">
+        <v>225</v>
+      </c>
+      <c r="I31" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>